--- a/55. College_Professors.xlsx
+++ b/55. College_Professors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF775D23-EB24-426C-AF80-3D47D282663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB15CDB-D09F-4F0F-A7DF-267C2F7EDAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{116D4ECC-B0B6-4B16-9AF1-8F9AC312B117}"/>
   </bookViews>
